--- a/modules/core/excel-generator/src/test/resources/templates/template.xlsx
+++ b/modules/core/excel-generator/src/test/resources/templates/template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hyh/dev/mylib/kotlin/kotlin-common-library/modules/core/excel-generator/src/test/resources/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3AE3589-9581-3E4C-B909-1A55888A5BA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33AB1171-36BC-A741-AEFA-5D3CB36E5911}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8240" yWindow="5640" windowWidth="35440" windowHeight="27520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4280" yWindow="5880" windowWidth="35440" windowHeight="27520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Report(세로)" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="21" r:id="rId4"/>
+    <pivotCache cacheId="343" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="23">
   <si>
     <t>${title}</t>
   </si>
@@ -110,10 +110,13 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>총합계</t>
-  </si>
-  <si>
-    <t>평균 : 급여</t>
+    <t>총</t>
+  </si>
+  <si>
+    <t>평균 급여</t>
+  </si>
+  <si>
+    <t>합계 급여</t>
   </si>
 </sst>
 </file>
@@ -186,7 +189,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -201,6 +204,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -265,7 +274,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -301,9 +310,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1">
       <alignment vertical="center"/>
     </xf>
@@ -327,13 +333,66 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="좋음" xfId="1" builtinId="26"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="15">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="#,##0_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="#,##0_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -353,6 +412,16 @@
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -406,8 +475,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B913C3A8-83B3-D24B-8F4B-0985F48AA6EC}" name="피벗 테이블3" cacheId="21" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="값" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="직급">
-  <location ref="I6:J8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B913C3A8-83B3-D24B-8F4B-0985F48AA6EC}" name="피벗 테이블3" cacheId="343" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="값" grandTotalCaption="총" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="직급">
+  <location ref="I6:K8" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField showAll="0"/>
     <pivotField axis="axisRow" showAll="0">
@@ -434,12 +503,71 @@
       <x/>
     </i>
   </rowItems>
-  <colItems count="1">
-    <i/>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
   </colItems>
-  <dataFields count="1">
-    <dataField name="평균 : 급여" fld="2" subtotal="average" baseField="0" baseItem="0"/>
+  <dataFields count="2">
+    <dataField name="평균 급여" fld="2" subtotal="average" baseField="0" baseItem="0"/>
+    <dataField name="합계 급여" fld="2" baseField="0" baseItem="0"/>
   </dataFields>
+  <formats count="6">
+    <format dxfId="14">
+      <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="13">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="1" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="6">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="3">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="1" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="1">
+      <pivotArea field="1" grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="0">
+      <pivotArea field="1" grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -769,10 +897,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N26" sqref="N26"/>
+      <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
@@ -782,40 +910,41 @@
     <col min="5" max="6" width="20" customWidth="1"/>
     <col min="8" max="8" width="16.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="50" customHeight="1">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:11" ht="50" customHeight="1">
+      <c r="A1" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="16" t="s">
+      <c r="B1" s="16"/>
+      <c r="C1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="16"/>
+      <c r="D1" s="15"/>
       <c r="E1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="32" customHeight="1">
-      <c r="A2" s="18" t="s">
+    <row r="2" spans="1:11" ht="32" customHeight="1">
+      <c r="A2" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-    </row>
-    <row r="3" spans="1:10">
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:11">
       <c r="A4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -827,47 +956,56 @@
       </c>
       <c r="D5" s="2"/>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:11">
       <c r="A6" s="8" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="24" t="s">
         <v>7</v>
       </c>
       <c r="D6" s="5"/>
-      <c r="I6" s="14" t="s">
+      <c r="I6" s="13" t="s">
         <v>4</v>
       </c>
       <c r="J6" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="I7" s="15" t="s">
+      <c r="K6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="I7" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="J7" t="e">
+      <c r="J7" s="23" t="e">
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="8" spans="1:10">
+      <c r="K7" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" t="s">
         <v>8</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
       </c>
-      <c r="I8" s="15" t="s">
+      <c r="I8" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="J8" t="e">
+      <c r="J8" s="21" t="e">
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="9" spans="1:10">
+      <c r="K8" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -884,7 +1022,7 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="C6">
-    <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="12" priority="1" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>6000</formula>
     </cfRule>
   </conditionalFormatting>
@@ -913,26 +1051,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="50" customHeight="1">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="16" t="s">
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="16"/>
+      <c r="E1" s="15"/>
       <c r="F1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="32" customHeight="1">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
@@ -1012,24 +1150,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="50" customHeight="1">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="16" t="s">
+      <c r="B1" s="16"/>
+      <c r="C1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="16"/>
+      <c r="D1" s="15"/>
       <c r="E1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="32" customHeight="1">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
@@ -1042,7 +1180,7 @@
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="18" t="s">
         <v>15</v>
       </c>
       <c r="B5" s="10" t="s">
@@ -1051,14 +1189,14 @@
       <c r="C5" s="2"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="20"/>
+      <c r="A6" s="19"/>
       <c r="B6" s="7" t="s">
         <v>16</v>
       </c>
       <c r="C6" s="2"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="20" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="8" t="s">
@@ -1067,7 +1205,7 @@
       <c r="C7" s="5"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="16"/>
+      <c r="A8" s="15"/>
       <c r="B8" s="12" t="s">
         <v>7</v>
       </c>
@@ -1099,7 +1237,7 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="B8">
-    <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="11" priority="1" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>6000</formula>
     </cfRule>
   </conditionalFormatting>

--- a/modules/core/excel-generator/src/test/resources/templates/template.xlsx
+++ b/modules/core/excel-generator/src/test/resources/templates/template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hyh/dev/mylib/kotlin/kotlin-common-library/modules/core/excel-generator/src/test/resources/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33AB1171-36BC-A741-AEFA-5D3CB36E5911}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{756BA45F-E038-D84F-BCC2-D19E65D643B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4280" yWindow="5880" windowWidth="35440" windowHeight="27520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4320" yWindow="5880" windowWidth="35440" windowHeight="27520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Report(세로)" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="343" r:id="rId4"/>
+    <pivotCache cacheId="8" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="27">
   <si>
     <t>${title}</t>
   </si>
@@ -110,6 +110,9 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>총합계</t>
+  </si>
+  <si>
     <t>총</t>
   </si>
   <si>
@@ -117,6 +120,16 @@
   </si>
   <si>
     <t>합계 급여</t>
+  </si>
+  <si>
+    <t>${employees.size()}명</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>행 레이블</t>
+  </si>
+  <si>
+    <t>개수 : 이름</t>
   </si>
 </sst>
 </file>
@@ -126,7 +139,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="#,##0_ "/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -183,6 +196,28 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <u val="double"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <u/>
+      <sz val="11"/>
+      <color theme="6" tint="-0.249977111117893"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
@@ -274,7 +309,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -316,6 +351,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -337,13 +387,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
@@ -351,28 +398,7 @@
     <cellStyle name="좋음" xfId="1" builtinId="26"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="15">
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="#,##0_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="#,##0_ "/>
-    </dxf>
+  <dxfs count="32">
     <dxf>
       <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
     </dxf>
@@ -384,6 +410,55 @@
       </fill>
     </dxf>
     <dxf>
+      <numFmt numFmtId="176" formatCode="#,##0_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+        <charset val="129"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <charset val="129"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <i/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <u val="double"/>
+      </font>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
     </dxf>
     <dxf>
@@ -392,6 +467,55 @@
           <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="#,##0_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+        <charset val="129"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <charset val="129"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <i/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <u val="double"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -412,16 +536,6 @@
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -436,6 +550,1357 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ko-KR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[template.xlsx]Report(세로)!피벗 테이블3</c:name>
+    <c:fmtId val="6"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR"/>
+              <a:t>${title}</a:t>
+            </a:r>
+            <a:endParaRPr lang="ko-KR" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ko-KR"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ko-KR"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ko-KR"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ko-KR"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="4"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ko-KR"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="5"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ko-KR"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Report(세로)'!$J$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>합계 급여</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Report(세로)'!$I$7:$I$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>${emp.position}</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Report(세로)'!$J$7:$J$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-21DC-1B4F-9E0E-C82EE3FFCD44}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="1535265039"/>
+        <c:axId val="1536142223"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Report(세로)'!$K$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>평균 급여</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Report(세로)'!$I$7:$I$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>${emp.position}</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Report(세로)'!$K$7:$K$8</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0_ </c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-21DC-1B4F-9E0E-C82EE3FFCD44}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1476378896"/>
+        <c:axId val="1476383808"/>
+      </c:lineChart>
+      <c:valAx>
+        <c:axId val="1536142223"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1535265039"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="1535265039"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1536142223"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1476383808"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="#,##0_ " sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1476378896"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="1476378896"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1476383808"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ko-KR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="286">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>184727</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>138545</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1131455</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>30017</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="차트 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA684ED0-8028-2547-9850-2AF95E72F5C0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="황용호" refreshedDate="46034.385167939814" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="1" xr:uid="{F1FF6B91-A193-264C-97D3-59C6075DB3AC}">
   <cacheSource type="worksheet">
@@ -443,7 +1908,9 @@
   </cacheSource>
   <cacheFields count="3">
     <cacheField name="이름" numFmtId="0">
-      <sharedItems/>
+      <sharedItems count="1">
+        <s v="${emp.name}"/>
+      </sharedItems>
     </cacheField>
     <cacheField name="직급" numFmtId="0">
       <sharedItems count="1">
@@ -467,7 +1934,7 @@
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="1">
   <r>
-    <s v="${emp.name}"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="0"/>
   </r>
@@ -475,7 +1942,49 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B913C3A8-83B3-D24B-8F4B-0985F48AA6EC}" name="피벗 테이블3" cacheId="343" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="값" grandTotalCaption="총" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="직급">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E7D345E0-1F9E-3542-9E98-DBF333DED568}" name="피벗 테이블2" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="값" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="M6:N8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="3">
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="2">
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="개수 : 이름" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B913C3A8-83B3-D24B-8F4B-0985F48AA6EC}" name="피벗 테이블3" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="값" grandTotalCaption="총" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="8" rowHeaderCaption="직급">
   <location ref="I6:K8" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField showAll="0"/>
@@ -515,21 +2024,31 @@
     </i>
   </colItems>
   <dataFields count="2">
+    <dataField name="합계 급여" fld="2" baseField="0" baseItem="0"/>
     <dataField name="평균 급여" fld="2" subtotal="average" baseField="0" baseItem="0"/>
-    <dataField name="합계 급여" fld="2" baseField="0" baseItem="0"/>
   </dataFields>
-  <formats count="6">
-    <format dxfId="14">
+  <formats count="15">
+    <format dxfId="15">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="13">
+    <format dxfId="16">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="6">
+    <format dxfId="17">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="1" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="18">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -539,17 +2058,16 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="3">
-      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="2">
+    <format dxfId="19">
+      <pivotArea field="1" grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
+        <references count="1">
           <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
+            <x v="0"/>
           </reference>
-          <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1">
+    <format dxfId="20">
       <pivotArea field="1" grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -558,16 +2076,99 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="0">
-      <pivotArea field="1" grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
+    <format dxfId="21">
+      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="22">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="1" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="23">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="24">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="25">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="2">
+            <x v="0"/>
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="26">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="1" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="27">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="1" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="28">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="1" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="29">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="1" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
+  <chartFormats count="4">
+    <chartFormat chart="0" format="4" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="5" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
             <x v="0"/>
           </reference>
         </references>
       </pivotArea>
-    </format>
-  </formats>
+    </chartFormat>
+    <chartFormat chart="6" format="4" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="6" format="5" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -897,10 +2498,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:N9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P6" sqref="P6"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
@@ -909,42 +2510,43 @@
     <col min="4" max="4" width="5.83203125" customWidth="1"/>
     <col min="5" max="6" width="20" customWidth="1"/>
     <col min="8" max="8" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.1640625" customWidth="1"/>
+    <col min="9" max="9" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="10" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="50" customHeight="1">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:14" ht="50" customHeight="1">
+      <c r="A1" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="15" t="s">
+      <c r="B1" s="21"/>
+      <c r="C1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="15"/>
+      <c r="D1" s="20"/>
       <c r="E1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="32" customHeight="1">
-      <c r="A2" s="17" t="s">
+    <row r="2" spans="1:14" ht="32" customHeight="1">
+      <c r="A2" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:14">
       <c r="A3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:14">
       <c r="A4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:14">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -956,56 +2558,74 @@
       </c>
       <c r="D5" s="2"/>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:14">
       <c r="A6" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="24" t="s">
+      <c r="C6" s="12" t="s">
         <v>7</v>
       </c>
       <c r="D6" s="5"/>
-      <c r="I6" s="13" t="s">
+      <c r="I6" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="J6" t="s">
-        <v>21</v>
-      </c>
-      <c r="K6" t="s">
+      <c r="J6" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="K6" s="16" t="s">
         <v>22</v>
       </c>
+      <c r="M6" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="N6" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="7" spans="1:11">
-      <c r="I7" s="14" t="s">
+    <row r="7" spans="1:14">
+      <c r="I7" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="J7" s="23" t="e">
+      <c r="J7" s="28">
+        <v>0</v>
+      </c>
+      <c r="K7" s="17" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="K7" s="22">
-        <v>0</v>
+      <c r="M7" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="N7" s="26">
+        <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:14">
       <c r="A8" t="s">
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
-      </c>
-      <c r="I8" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J8" s="27">
+        <v>0</v>
+      </c>
+      <c r="K8" s="27" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M8" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="J8" s="21" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K8" s="21">
-        <v>0</v>
+      <c r="N8" s="26">
+        <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:14">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -1022,16 +2642,17 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="C6">
-    <cfRule type="cellIs" dxfId="12" priority="1" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="31" priority="1" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>6000</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations disablePrompts="1" count="1">
+  <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6" xr:uid="{0B0055E0-633E-B944-B6E3-96E0D2DE8585}">
       <formula1>"사원, 대리, 과장, 차장, 부장"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -1051,26 +2672,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="50" customHeight="1">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="15" t="s">
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="15"/>
+      <c r="E1" s="20"/>
       <c r="F1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="32" customHeight="1">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
@@ -1150,24 +2771,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="50" customHeight="1">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="15" t="s">
+      <c r="B1" s="21"/>
+      <c r="C1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="15"/>
+      <c r="D1" s="20"/>
       <c r="E1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="32" customHeight="1">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
@@ -1180,7 +2801,7 @@
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="23" t="s">
         <v>15</v>
       </c>
       <c r="B5" s="10" t="s">
@@ -1189,14 +2810,14 @@
       <c r="C5" s="2"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="19"/>
+      <c r="A6" s="24"/>
       <c r="B6" s="7" t="s">
         <v>16</v>
       </c>
       <c r="C6" s="2"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="25" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="8" t="s">
@@ -1205,7 +2826,7 @@
       <c r="C7" s="5"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="15"/>
+      <c r="A8" s="20"/>
       <c r="B8" s="12" t="s">
         <v>7</v>
       </c>
@@ -1237,7 +2858,7 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="B8">
-    <cfRule type="cellIs" dxfId="11" priority="1" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="30" priority="1" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>6000</formula>
     </cfRule>
   </conditionalFormatting>

--- a/modules/core/excel-generator/src/test/resources/templates/template.xlsx
+++ b/modules/core/excel-generator/src/test/resources/templates/template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hyh/dev/mylib/kotlin/kotlin-common-library/modules/core/excel-generator/src/test/resources/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{756BA45F-E038-D84F-BCC2-D19E65D643B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E34AC4F-F640-F941-AF4B-A75506FDFF63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4320" yWindow="5880" windowWidth="35440" windowHeight="27520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12340" yWindow="6760" windowWidth="35440" windowHeight="27520" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Report(세로)" sheetId="1" r:id="rId1"/>
@@ -588,8 +588,12 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
+              <a:rPr lang="ko-KR" altLang="en-US"/>
+              <a:t>차트</a:t>
+            </a:r>
+            <a:r>
               <a:rPr lang="en-US" altLang="ko-KR"/>
-              <a:t>${title}</a:t>
+              <a:t>: ${title}</a:t>
             </a:r>
             <a:endParaRPr lang="ko-KR" altLang="en-US"/>
           </a:p>
@@ -1898,6 +1902,85 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>346362</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>184727</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>196272</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="모서리가 둥근 직사각형 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2739E21-1102-8B06-6661-C252157D8AE7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5749635" y="7366000"/>
+          <a:ext cx="4629729" cy="669636"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>제목</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>: ${title}</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>작성일</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>: ${date}</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2500,8 +2583,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="O25" sqref="O25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
@@ -2660,7 +2743,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE3C7E00-1A54-7244-AD9C-884797BC931B}">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
@@ -2752,6 +2835,11 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <headerFooter>
+    <oddHeader>&amp;C머리글: ${title}</oddHeader>
+    <oddFooter>&amp;C&amp;"나눔명조,보통"&amp;10&amp;K000000바닥글&amp;"System Font,보통":${title}</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 

--- a/modules/core/excel-generator/src/test/resources/templates/template.xlsx
+++ b/modules/core/excel-generator/src/test/resources/templates/template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10102"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10110"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hyh/dev/mylib/kotlin/kotlin-common-library/modules/core/excel-generator/src/test/resources/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E34AC4F-F640-F941-AF4B-A75506FDFF63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5998AFFD-2D03-E548-AEAA-81B0CAAE0ECA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12340" yWindow="6760" windowWidth="35440" windowHeight="27520" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12340" yWindow="6760" windowWidth="35440" windowHeight="27520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Report(세로)" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="8" r:id="rId4"/>
+    <pivotCache cacheId="29" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -139,7 +139,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="#,##0_ "/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -223,6 +223,24 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="14"/>
+      <color theme="10"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -301,15 +319,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -366,6 +387,9 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -384,139 +408,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="좋음" xfId="1" builtinId="26"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="하이퍼링크" xfId="2" builtinId="8"/>
   </cellStyles>
-  <dxfs count="32">
-    <dxf>
-      <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="#,##0_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-        <charset val="129"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <charset val="129"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <u val="double"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="#,##0_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-        <charset val="129"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <charset val="129"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <u val="double"/>
-      </font>
-    </dxf>
+  <dxfs count="17">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -536,6 +437,65 @@
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <u val="double"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <i/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <charset val="129"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+        <charset val="129"/>
+      </font>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="#,##0_ "/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -624,7 +584,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ko-KR"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1242,6 +1202,7 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="1476378896"/>
+        <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
@@ -1256,6 +1217,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="1476383808"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -2025,7 +1987,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E7D345E0-1F9E-3542-9E98-DBF333DED568}" name="피벗 테이블2" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="값" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E7D345E0-1F9E-3542-9E98-DBF333DED568}" name="피벗 테이블2" cacheId="29" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="값" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="M6:N8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField dataField="1" showAll="0"/>
@@ -2067,7 +2029,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B913C3A8-83B3-D24B-8F4B-0985F48AA6EC}" name="피벗 테이블3" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="값" grandTotalCaption="총" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="8" rowHeaderCaption="직급">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B913C3A8-83B3-D24B-8F4B-0985F48AA6EC}" name="피벗 테이블3" cacheId="29" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="값" grandTotalCaption="총" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="8" rowHeaderCaption="직급">
   <location ref="I6:K8" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField showAll="0"/>
@@ -2111,17 +2073,17 @@
     <dataField name="평균 급여" fld="2" subtotal="average" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="15">
-    <format dxfId="15">
+    <format dxfId="16">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="16">
+    <format dxfId="15">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="17">
+    <format dxfId="14">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -2131,7 +2093,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="18">
+    <format dxfId="13">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -2141,7 +2103,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="19">
+    <format dxfId="12">
       <pivotArea field="1" grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -2150,7 +2112,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="20">
+    <format dxfId="11">
       <pivotArea field="1" grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -2159,23 +2121,23 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="21">
+    <format dxfId="10">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="22">
+    <format dxfId="9">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="23">
+    <format dxfId="8">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="24">
+    <format dxfId="7">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="25">
+    <format dxfId="6">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="2">
@@ -2185,28 +2147,28 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="26">
+    <format dxfId="5">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="27">
+    <format dxfId="4">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="28">
+    <format dxfId="3">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="29">
+    <format dxfId="2">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
@@ -2583,8 +2545,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N9"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="O25" sqref="O25"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
@@ -2600,24 +2562,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="50" customHeight="1">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="20" t="s">
+      <c r="B1" s="22"/>
+      <c r="C1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="20"/>
+      <c r="D1" s="21"/>
       <c r="E1" t="s">
         <v>1</v>
       </c>
+      <c r="F1" s="27" t="str">
+        <f>HYPERLINK("${url}", "${linkText}")</f>
+        <v>${linkText}</v>
+      </c>
+      <c r="G1" s="27"/>
     </row>
     <row r="2" spans="1:14" ht="32" customHeight="1">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" t="s">
@@ -2672,7 +2639,7 @@
       <c r="I7" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="J7" s="28">
+      <c r="J7" s="20">
         <v>0</v>
       </c>
       <c r="K7" s="17" t="e">
@@ -2681,7 +2648,7 @@
       <c r="M7" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="N7" s="26">
+      <c r="N7">
         <v>1</v>
       </c>
     </row>
@@ -2695,16 +2662,16 @@
       <c r="I8" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="J8" s="27">
+      <c r="J8" s="16">
         <v>0</v>
       </c>
-      <c r="K8" s="27" t="e">
+      <c r="K8" s="16" t="e">
         <v>#DIV/0!</v>
       </c>
       <c r="M8" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="N8" s="26">
+      <c r="N8">
         <v>1</v>
       </c>
     </row>
@@ -2718,14 +2685,15 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:C2"/>
+    <mergeCell ref="F1:G1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="C6">
-    <cfRule type="cellIs" dxfId="31" priority="1" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>6000</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2743,7 +2711,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE3C7E00-1A54-7244-AD9C-884797BC931B}">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
@@ -2755,26 +2723,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="50" customHeight="1">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="20" t="s">
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="20"/>
+      <c r="E1" s="21"/>
       <c r="F1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="32" customHeight="1">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
@@ -2859,24 +2827,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="50" customHeight="1">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="20" t="s">
+      <c r="B1" s="22"/>
+      <c r="C1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="20"/>
+      <c r="D1" s="21"/>
       <c r="E1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="32" customHeight="1">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
@@ -2889,7 +2857,7 @@
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="24" t="s">
         <v>15</v>
       </c>
       <c r="B5" s="10" t="s">
@@ -2898,14 +2866,14 @@
       <c r="C5" s="2"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="24"/>
+      <c r="A6" s="25"/>
       <c r="B6" s="7" t="s">
         <v>16</v>
       </c>
       <c r="C6" s="2"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="25" t="s">
+      <c r="A7" s="26" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="8" t="s">
@@ -2914,7 +2882,7 @@
       <c r="C7" s="5"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="20"/>
+      <c r="A8" s="21"/>
       <c r="B8" s="12" t="s">
         <v>7</v>
       </c>
@@ -2946,7 +2914,7 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="B8">
-    <cfRule type="cellIs" dxfId="30" priority="1" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>6000</formula>
     </cfRule>
   </conditionalFormatting>

--- a/modules/core/excel-generator/src/test/resources/templates/template.xlsx
+++ b/modules/core/excel-generator/src/test/resources/templates/template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hyh/dev/mylib/kotlin/kotlin-common-library/modules/core/excel-generator/src/test/resources/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5998AFFD-2D03-E548-AEAA-81B0CAAE0ECA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB291D27-8D17-C440-B5C5-12F951B0E5D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12340" yWindow="6760" windowWidth="35440" windowHeight="27520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3420" yWindow="4740" windowWidth="35440" windowHeight="27520" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Report(세로)" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="29" r:id="rId4"/>
+    <pivotCache cacheId="106" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -399,6 +399,9 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -406,9 +409,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1946,6 +1946,109 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>649856</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>2844</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2159245" cy="1000210"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="직사각형 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{015B3EA5-A935-4403-5427-D17093ED2B9A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="649856" y="2771444"/>
+          <a:ext cx="2159245" cy="1000210"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2400" b="1" cap="none" spc="0">
+              <a:ln w="22225">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="40000"/>
+                  <a:lumOff val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>${title}</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="2400" b="1" cap="none" spc="0">
+              <a:ln w="22225">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="40000"/>
+                  <a:lumOff val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>작성일</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2400" b="1" cap="none" spc="0">
+              <a:ln w="22225">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="40000"/>
+                  <a:lumOff val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>: ${date}</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="황용호" refreshedDate="46034.385167939814" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="1" xr:uid="{F1FF6B91-A193-264C-97D3-59C6075DB3AC}">
   <cacheSource type="worksheet">
@@ -1987,7 +2090,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E7D345E0-1F9E-3542-9E98-DBF333DED568}" name="피벗 테이블2" cacheId="29" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="값" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E7D345E0-1F9E-3542-9E98-DBF333DED568}" name="피벗 테이블2" cacheId="106" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="값" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="M6:N8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField dataField="1" showAll="0"/>
@@ -2029,7 +2132,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B913C3A8-83B3-D24B-8F4B-0985F48AA6EC}" name="피벗 테이블3" cacheId="29" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="값" grandTotalCaption="총" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="8" rowHeaderCaption="직급">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B913C3A8-83B3-D24B-8F4B-0985F48AA6EC}" name="피벗 테이블3" cacheId="106" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="값" grandTotalCaption="총" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="8" rowHeaderCaption="직급">
   <location ref="I6:K8" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField showAll="0"/>
@@ -2545,8 +2648,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:G1"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
@@ -2573,11 +2676,11 @@
       <c r="E1" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="27" t="str">
+      <c r="F1" s="24" t="str">
         <f>HYPERLINK("${url}", "${linkText}")</f>
         <v>${linkText}</v>
       </c>
-      <c r="G1" s="27"/>
+      <c r="G1" s="24"/>
     </row>
     <row r="2" spans="1:14" ht="32" customHeight="1">
       <c r="A2" s="23" t="s">
@@ -2711,8 +2814,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE3C7E00-1A54-7244-AD9C-884797BC931B}">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
@@ -2808,6 +2911,7 @@
     <oddHeader>&amp;C머리글: ${title}</oddHeader>
     <oddFooter>&amp;C&amp;"나눔명조,보통"&amp;10&amp;K000000바닥글&amp;"System Font,보통":${title}</oddFooter>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2857,7 +2961,7 @@
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="25" t="s">
         <v>15</v>
       </c>
       <c r="B5" s="10" t="s">
@@ -2866,14 +2970,14 @@
       <c r="C5" s="2"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="25"/>
+      <c r="A6" s="26"/>
       <c r="B6" s="7" t="s">
         <v>16</v>
       </c>
       <c r="C6" s="2"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="26" t="s">
+      <c r="A7" s="27" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="8" t="s">

--- a/modules/core/excel-generator/src/test/resources/templates/template.xlsx
+++ b/modules/core/excel-generator/src/test/resources/templates/template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hyh/dev/mylib/kotlin/kotlin-common-library/modules/core/excel-generator/src/test/resources/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB291D27-8D17-C440-B5C5-12F951B0E5D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB66B532-AEC5-D54E-8B11-B7A099D8FA24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3420" yWindow="4740" windowWidth="35440" windowHeight="27520" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3400" yWindow="4740" windowWidth="35440" windowHeight="27520" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Report(세로)" sheetId="1" r:id="rId1"/>
@@ -2814,7 +2814,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE3C7E00-1A54-7244-AD9C-884797BC931B}">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
@@ -2919,8 +2919,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DA2B50C-AA25-8B49-B0CA-84B6326704E6}">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>

--- a/modules/core/excel-generator/src/test/resources/templates/template.xlsx
+++ b/modules/core/excel-generator/src/test/resources/templates/template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10118"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hyh/dev/mylib/kotlin/kotlin-common-library/modules/core/excel-generator/src/test/resources/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB66B532-AEC5-D54E-8B11-B7A099D8FA24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A000544-7384-4A4B-9E3D-48E167D56C35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3400" yWindow="4740" windowWidth="35440" windowHeight="27520" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="760" yWindow="600" windowWidth="35440" windowHeight="27520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Report(세로)" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="106" r:id="rId4"/>
+    <pivotCache cacheId="136" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="33">
   <si>
     <t>${title}</t>
   </si>
@@ -130,6 +130,30 @@
   </si>
   <si>
     <t>개수 : 이름</t>
+  </si>
+  <si>
+    <t>${floatimage(ci, "", 0:-1)}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>${floatimage(ci, "", -1:-1)}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>${floatimage(logo, "", 0:-0)}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>${floatimage(ci, "", 0:0)}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>${floatimage(ci, B11, 0:-1)}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>${floatimage(ci, C10, 0:-1)}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2090,49 +2114,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E7D345E0-1F9E-3542-9E98-DBF333DED568}" name="피벗 테이블2" cacheId="106" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="값" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="M6:N8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="3">
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="2">
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="개수 : 이름" fld="0" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B913C3A8-83B3-D24B-8F4B-0985F48AA6EC}" name="피벗 테이블3" cacheId="106" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="값" grandTotalCaption="총" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="8" rowHeaderCaption="직급">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B913C3A8-83B3-D24B-8F4B-0985F48AA6EC}" name="피벗 테이블3" cacheId="136" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="값" grandTotalCaption="총" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="8" rowHeaderCaption="직급">
   <location ref="I6:K8" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField showAll="0"/>
@@ -2317,6 +2299,48 @@
       </pivotArea>
     </chartFormat>
   </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E7D345E0-1F9E-3542-9E98-DBF333DED568}" name="피벗 테이블2" cacheId="136" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="값" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="M6:N8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="3">
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="2">
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="개수 : 이름" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -2646,10 +2670,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N9"/>
+  <dimension ref="A1:N10"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
@@ -2722,6 +2746,9 @@
         <v>7</v>
       </c>
       <c r="D6" s="5"/>
+      <c r="E6" t="s">
+        <v>32</v>
+      </c>
       <c r="I6" s="15" t="s">
         <v>4</v>
       </c>
@@ -2785,6 +2812,11 @@
       <c r="B9">
         <f>SUM(C6)</f>
         <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="B10" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -2812,10 +2844,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE3C7E00-1A54-7244-AD9C-884797BC931B}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
@@ -2885,6 +2917,9 @@
       <c r="B7" s="3" t="s">
         <v>7</v>
       </c>
+      <c r="E7" t="s">
+        <v>29</v>
+      </c>
       <c r="F7">
         <f>SUM(B7)</f>
         <v>0</v>
@@ -2898,11 +2933,49 @@
         <v>9</v>
       </c>
     </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="B20" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="B23" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23" s="21"/>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="B24" s="21"/>
+      <c r="C24" s="21"/>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="B25" s="21"/>
+      <c r="C25" s="21"/>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="B26" s="21"/>
+      <c r="C26" s="21"/>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="B27" s="21"/>
+      <c r="C27" s="21"/>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="A2:D2"/>
+    <mergeCell ref="B23:C27"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2919,8 +2992,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DA2B50C-AA25-8B49-B0CA-84B6326704E6}">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>

--- a/modules/core/excel-generator/src/test/resources/templates/template.xlsx
+++ b/modules/core/excel-generator/src/test/resources/templates/template.xlsx
@@ -2,24 +2,28 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10118"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr hidePivotFieldList="1" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hyh/dev/mylib/kotlin/kotlin-common-library/modules/core/excel-generator/src/test/resources/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A000544-7384-4A4B-9E3D-48E167D56C35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A7B55F2-8CAC-914E-83E0-8AB1D71C4CB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="600" windowWidth="35440" windowHeight="27520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="760" yWindow="600" windowWidth="35440" windowHeight="27520" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Report(세로)" sheetId="1" r:id="rId1"/>
     <sheet name="Report (가로)" sheetId="2" r:id="rId2"/>
     <sheet name="Report(셀병합)" sheetId="3" r:id="rId3"/>
+    <sheet name="Report(Named Range)" sheetId="4" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="employeeList">'Report(Named Range)'!$A$6:$C$6</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="136" r:id="rId4"/>
+    <pivotCache cacheId="302" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -38,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="36">
   <si>
     <t>${title}</t>
   </si>
@@ -132,27 +136,39 @@
     <t>개수 : 이름</t>
   </si>
   <si>
-    <t>${floatimage(ci, "", 0:-1)}</t>
+    <t>${image(ci, C10, 0:-1)}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>${floatimage(ci, "", -1:-1)}</t>
+    <t>${image(ci, B11, 0:-1)}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>${floatimage(logo, "", 0:-0)}</t>
+    <t>${image(ci, "", 0:-1)}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>${floatimage(ci, "", 0:0)}</t>
+    <t>${image(logo, "", 0:-0)}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>${floatimage(ci, B11, 0:-1)}</t>
+    <t>${image(ci, "", 0:0)}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>${floatimage(ci, C10, 0:-1)}</t>
+    <t>${image(ci, "", -1:-1)}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>${image.logo}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>${image(ci)}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>${repeat(collection=employees, range=employeeList, var=emp)}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -354,7 +370,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -411,9 +427,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -435,13 +448,327 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="좋음" xfId="1" builtinId="26"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
     <cellStyle name="하이퍼링크" xfId="2" builtinId="8"/>
   </cellStyles>
-  <dxfs count="17">
+  <dxfs count="93">
+    <dxf>
+      <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="#,##0_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+        <charset val="129"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <charset val="129"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <i/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <u val="double"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="#,##0_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+        <charset val="129"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <charset val="129"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <i/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <u val="double"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="#,##0_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+        <charset val="129"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <charset val="129"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <i/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <u val="double"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="#,##0_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+        <charset val="129"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <charset val="129"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <i/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <u val="double"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="#,##0_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+        <charset val="129"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <charset val="129"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <i/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <u val="double"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2114,7 +2441,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B913C3A8-83B3-D24B-8F4B-0985F48AA6EC}" name="피벗 테이블3" cacheId="136" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="값" grandTotalCaption="총" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="8" rowHeaderCaption="직급">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B913C3A8-83B3-D24B-8F4B-0985F48AA6EC}" name="피벗 테이블3" cacheId="302" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="값" grandTotalCaption="총" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10" rowHeaderCaption="직급">
   <location ref="I6:K8" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField showAll="0"/>
@@ -2158,17 +2485,17 @@
     <dataField name="평균 급여" fld="2" subtotal="average" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="15">
-    <format dxfId="16">
+    <format dxfId="92">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="15">
+    <format dxfId="91">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="14">
+    <format dxfId="90">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -2178,7 +2505,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="13">
+    <format dxfId="89">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -2188,7 +2515,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="12">
+    <format dxfId="88">
       <pivotArea field="1" grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -2197,7 +2524,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="11">
+    <format dxfId="87">
       <pivotArea field="1" grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -2206,23 +2533,23 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="10">
+    <format dxfId="86">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="9">
+    <format dxfId="85">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="8">
+    <format dxfId="84">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="7">
+    <format dxfId="83">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="6">
+    <format dxfId="82">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="2">
@@ -2232,28 +2559,28 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="5">
+    <format dxfId="81">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="4">
+    <format dxfId="80">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="3">
+    <format dxfId="79">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="2">
+    <format dxfId="78">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
@@ -2261,7 +2588,7 @@
       </pivotArea>
     </format>
   </formats>
-  <chartFormats count="4">
+  <chartFormats count="6">
     <chartFormat chart="0" format="4" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
@@ -2298,6 +2625,24 @@
         </references>
       </pivotArea>
     </chartFormat>
+    <chartFormat chart="9" format="8" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="9" format="9" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
   </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -2312,7 +2657,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E7D345E0-1F9E-3542-9E98-DBF333DED568}" name="피벗 테이블2" cacheId="136" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="값" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E7D345E0-1F9E-3542-9E98-DBF333DED568}" name="피벗 테이블2" cacheId="302" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="값" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="M6:N8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField dataField="1" showAll="0"/>
@@ -2672,8 +3017,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
@@ -2689,29 +3034,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="50" customHeight="1">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="21"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="20"/>
       <c r="E1" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="24" t="str">
+      <c r="F1" s="23" t="str">
         <f>HYPERLINK("${url}", "${linkText}")</f>
         <v>${linkText}</v>
       </c>
-      <c r="G1" s="24"/>
+      <c r="G1" s="23"/>
     </row>
     <row r="2" spans="1:14" ht="32" customHeight="1">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" t="s">
@@ -2747,7 +3092,7 @@
       </c>
       <c r="D6" s="5"/>
       <c r="E6" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="I6" s="15" t="s">
         <v>4</v>
@@ -2769,7 +3114,7 @@
       <c r="I7" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="J7" s="20">
+      <c r="J7" s="28">
         <v>0</v>
       </c>
       <c r="K7" s="17" t="e">
@@ -2778,7 +3123,7 @@
       <c r="M7" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="N7">
+      <c r="N7" s="27">
         <v>1</v>
       </c>
     </row>
@@ -2792,16 +3137,16 @@
       <c r="I8" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="J8" s="16">
+      <c r="J8" s="29">
         <v>0</v>
       </c>
-      <c r="K8" s="16" t="e">
+      <c r="K8" s="29" t="e">
         <v>#DIV/0!</v>
       </c>
       <c r="M8" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="N8">
+      <c r="N8" s="27">
         <v>1</v>
       </c>
     </row>
@@ -2816,7 +3161,7 @@
     </row>
     <row r="10" spans="1:14">
       <c r="B10" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -2828,7 +3173,7 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="C6">
-    <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="77" priority="1" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>6000</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2847,7 +3192,7 @@
   <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
@@ -2858,26 +3203,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="50" customHeight="1">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="21" t="s">
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="21"/>
+      <c r="E1" s="20"/>
       <c r="F1" t="s">
-        <v>1</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="32" customHeight="1">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
@@ -2918,7 +3263,7 @@
         <v>7</v>
       </c>
       <c r="E7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F7">
         <f>SUM(B7)</f>
@@ -2935,39 +3280,39 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="B20" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="B23" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="C23" s="21"/>
+      <c r="B23" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23" s="20"/>
     </row>
     <row r="24" spans="1:3">
-      <c r="B24" s="21"/>
-      <c r="C24" s="21"/>
+      <c r="B24" s="20"/>
+      <c r="C24" s="20"/>
     </row>
     <row r="25" spans="1:3">
-      <c r="B25" s="21"/>
-      <c r="C25" s="21"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="20"/>
     </row>
     <row r="26" spans="1:3">
-      <c r="B26" s="21"/>
-      <c r="C26" s="21"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="20"/>
     </row>
     <row r="27" spans="1:3">
-      <c r="B27" s="21"/>
-      <c r="C27" s="21"/>
+      <c r="B27" s="20"/>
+      <c r="C27" s="20"/>
     </row>
     <row r="30" spans="1:3">
       <c r="B30" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -3004,24 +3349,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="50" customHeight="1">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="21" t="s">
+      <c r="B1" s="21"/>
+      <c r="C1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="21"/>
+      <c r="D1" s="20"/>
       <c r="E1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="32" customHeight="1">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
@@ -3034,7 +3379,7 @@
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="24" t="s">
         <v>15</v>
       </c>
       <c r="B5" s="10" t="s">
@@ -3043,14 +3388,14 @@
       <c r="C5" s="2"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="26"/>
+      <c r="A6" s="25"/>
       <c r="B6" s="7" t="s">
         <v>16</v>
       </c>
       <c r="C6" s="2"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="27" t="s">
+      <c r="A7" s="26" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="8" t="s">
@@ -3059,7 +3404,7 @@
       <c r="C7" s="5"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="21"/>
+      <c r="A8" s="20"/>
       <c r="B8" s="12" t="s">
         <v>7</v>
       </c>
@@ -3091,7 +3436,7 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="B8">
-    <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="76" priority="1" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>6000</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3102,4 +3447,130 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F3E7F18-D735-9A4E-BC9A-79E1426A1776}">
+  <dimension ref="A1:G10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F37" sqref="F37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <cols>
+    <col min="1" max="3" width="15" customWidth="1"/>
+    <col min="4" max="4" width="5.83203125" customWidth="1"/>
+    <col min="5" max="6" width="20" customWidth="1"/>
+    <col min="8" max="8" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="10" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="50" customHeight="1">
+      <c r="A1" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="20"/>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="23" t="str">
+        <f>HYPERLINK("${url}", "${linkText}")</f>
+        <v>${linkText}</v>
+      </c>
+      <c r="G1" s="23"/>
+    </row>
+    <row r="2" spans="1:7" ht="32" customHeight="1">
+      <c r="A2" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="2"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="5"/>
+      <c r="E6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9">
+        <f>SUM(C6)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="B10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="A2:C2"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <conditionalFormatting sqref="C6">
+    <cfRule type="cellIs" dxfId="75" priority="1" stopIfTrue="1" operator="greaterThanOrEqual">
+      <formula>6000</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations disablePrompts="1" count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6" xr:uid="{235B57F8-47F7-C648-87B5-9EAD463C6935}">
+      <formula1>"사원, 대리, 과장, 차장, 부장"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>